--- a/numero_materiais_cadernos10.xlsx
+++ b/numero_materiais_cadernos10.xlsx
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>28538</v>
+        <v>229421</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>228</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1243</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>40222</v>
+        <v>166282</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>62001</v>
+        <v>303824</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>17795</v>
+        <v>162309</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>35832</v>
+        <v>203684</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>24978</v>
+        <v>185942</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
